--- a/data/pca/factorExposure/factorExposure_2014-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004227141706775133</v>
+        <v>0.01806331154220229</v>
       </c>
       <c r="C2">
-        <v>0.1138601509489293</v>
+        <v>-0.07091865489078775</v>
       </c>
       <c r="D2">
-        <v>0.01484180732427389</v>
+        <v>0.03255051729834272</v>
       </c>
       <c r="E2">
-        <v>-0.2307977582451964</v>
+        <v>0.05390482017048923</v>
       </c>
       <c r="F2">
-        <v>0.02307719190179182</v>
+        <v>0.1503321843750282</v>
       </c>
       <c r="G2">
-        <v>0.07251589218987781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0131396710538282</v>
+      </c>
+      <c r="H2">
+        <v>-0.0602062198213096</v>
+      </c>
+      <c r="I2">
+        <v>-0.02440856471725149</v>
+      </c>
+      <c r="J2">
+        <v>-0.02331076039284754</v>
+      </c>
+      <c r="K2">
+        <v>0.1816661782173748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01963366097088166</v>
+        <v>0.01764473027016855</v>
       </c>
       <c r="C4">
-        <v>0.1690004600042072</v>
+        <v>-0.1446182551112306</v>
       </c>
       <c r="D4">
-        <v>0.02635657690675559</v>
+        <v>0.06340062971885987</v>
       </c>
       <c r="E4">
-        <v>-0.05850977543996258</v>
+        <v>-0.02843117434554069</v>
       </c>
       <c r="F4">
-        <v>-0.0803271466563123</v>
+        <v>0.06583029086455852</v>
       </c>
       <c r="G4">
-        <v>0.01154202861683587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01003636950641073</v>
+      </c>
+      <c r="H4">
+        <v>-0.08320411667628935</v>
+      </c>
+      <c r="I4">
+        <v>-0.1010626405479259</v>
+      </c>
+      <c r="J4">
+        <v>-0.04688388405149629</v>
+      </c>
+      <c r="K4">
+        <v>0.165398851105112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02731097140383391</v>
+        <v>0.03784249349977471</v>
       </c>
       <c r="C6">
-        <v>0.0775586665258093</v>
+        <v>-0.08698731753717481</v>
       </c>
       <c r="D6">
-        <v>0.0549707021798154</v>
+        <v>0.02841858885538907</v>
       </c>
       <c r="E6">
-        <v>-0.06733221058191402</v>
+        <v>0.04087907919093068</v>
       </c>
       <c r="F6">
-        <v>-0.02666917785024121</v>
+        <v>0.02847487620916507</v>
       </c>
       <c r="G6">
-        <v>-0.01066562824178244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03773352047006578</v>
+      </c>
+      <c r="H6">
+        <v>-0.03491615434569151</v>
+      </c>
+      <c r="I6">
+        <v>0.0154146138183112</v>
+      </c>
+      <c r="J6">
+        <v>0.09369347421873253</v>
+      </c>
+      <c r="K6">
+        <v>0.07964716690723403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0002536823204944186</v>
+        <v>0.01793474560616299</v>
       </c>
       <c r="C7">
-        <v>0.06602134782290996</v>
+        <v>-0.07319973393128335</v>
       </c>
       <c r="D7">
-        <v>0.03334645016577903</v>
+        <v>0.02881932674321323</v>
       </c>
       <c r="E7">
-        <v>-0.01975737232150111</v>
+        <v>-0.01919724619761196</v>
       </c>
       <c r="F7">
-        <v>-0.04367366564085598</v>
+        <v>-0.002132550369550411</v>
       </c>
       <c r="G7">
-        <v>-0.01880020459506805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03319343772888193</v>
+      </c>
+      <c r="H7">
+        <v>-0.09535479404502496</v>
+      </c>
+      <c r="I7">
+        <v>-0.03067576933762066</v>
+      </c>
+      <c r="J7">
+        <v>0.001189765388669069</v>
+      </c>
+      <c r="K7">
+        <v>0.03526598372956124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01349890956143099</v>
+        <v>-0.0001671880811968016</v>
       </c>
       <c r="C8">
-        <v>0.07277550895231201</v>
+        <v>-0.06189293420235593</v>
       </c>
       <c r="D8">
-        <v>0.03828193822092316</v>
+        <v>0.04399949255907731</v>
       </c>
       <c r="E8">
-        <v>-0.07593685683394985</v>
+        <v>0.007814754945582656</v>
       </c>
       <c r="F8">
-        <v>-0.03015928641975138</v>
+        <v>0.06041882363192587</v>
       </c>
       <c r="G8">
-        <v>0.02048694225256465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02069175000522949</v>
+      </c>
+      <c r="H8">
+        <v>-0.06122539201361454</v>
+      </c>
+      <c r="I8">
+        <v>-0.01952129849895802</v>
+      </c>
+      <c r="J8">
+        <v>0.0005662404515965951</v>
+      </c>
+      <c r="K8">
+        <v>-0.009660425584995139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.00821736764284896</v>
+        <v>0.01343532876578001</v>
       </c>
       <c r="C9">
-        <v>0.1223731899560633</v>
+        <v>-0.1026426577565934</v>
       </c>
       <c r="D9">
-        <v>0.04054268815747879</v>
+        <v>0.04440059916238834</v>
       </c>
       <c r="E9">
-        <v>-0.02325049690277394</v>
+        <v>-0.006258883858596695</v>
       </c>
       <c r="F9">
-        <v>-0.03030687970225493</v>
+        <v>0.03117761610518924</v>
       </c>
       <c r="G9">
-        <v>-0.03569251072297069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0006226006643447677</v>
+      </c>
+      <c r="H9">
+        <v>-0.08545489804904351</v>
+      </c>
+      <c r="I9">
+        <v>-0.06816533492967854</v>
+      </c>
+      <c r="J9">
+        <v>-0.009300877999275484</v>
+      </c>
+      <c r="K9">
+        <v>0.07705258593959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2748775451815539</v>
+        <v>0.2472916974120014</v>
       </c>
       <c r="C10">
-        <v>-0.08588949727132619</v>
+        <v>0.08955393846183501</v>
       </c>
       <c r="D10">
-        <v>-0.0114272096245973</v>
+        <v>-0.006121356430821789</v>
       </c>
       <c r="E10">
-        <v>0.03567152909676623</v>
+        <v>0.01043895958489548</v>
       </c>
       <c r="F10">
-        <v>0.007787774634706299</v>
+        <v>-0.0004180543557253649</v>
       </c>
       <c r="G10">
-        <v>-0.02489319280064026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02363297737576598</v>
+      </c>
+      <c r="H10">
+        <v>-0.03235946433939226</v>
+      </c>
+      <c r="I10">
+        <v>-0.02515242628818679</v>
+      </c>
+      <c r="J10">
+        <v>-0.1819787031768282</v>
+      </c>
+      <c r="K10">
+        <v>-0.0947568611206048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.004682442455658751</v>
+        <v>0.0164460250992414</v>
       </c>
       <c r="C11">
-        <v>0.06646244421262226</v>
+        <v>-0.08257465882184582</v>
       </c>
       <c r="D11">
-        <v>0.02751690977333282</v>
+        <v>0.03806602627424648</v>
       </c>
       <c r="E11">
-        <v>0.01958234220863946</v>
+        <v>-0.005089169742975737</v>
       </c>
       <c r="F11">
-        <v>-0.01597652772647585</v>
+        <v>-0.01473697085141993</v>
       </c>
       <c r="G11">
-        <v>-0.04177578122272101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.007403464571209876</v>
+      </c>
+      <c r="H11">
+        <v>-0.02904945546299278</v>
+      </c>
+      <c r="I11">
+        <v>-0.01592418055535461</v>
+      </c>
+      <c r="J11">
+        <v>0.02410985564153531</v>
+      </c>
+      <c r="K11">
+        <v>-0.01154538809403203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0004987950467462972</v>
+        <v>0.01601210302778096</v>
       </c>
       <c r="C12">
-        <v>0.04565375522966054</v>
+        <v>-0.05576541197141378</v>
       </c>
       <c r="D12">
-        <v>0.03356037002224069</v>
+        <v>0.02489018827603459</v>
       </c>
       <c r="E12">
-        <v>0.009711087523162543</v>
+        <v>0.01958474000513108</v>
       </c>
       <c r="F12">
-        <v>0.01106193380322185</v>
+        <v>-0.01509099480343403</v>
       </c>
       <c r="G12">
-        <v>-0.06300917791315848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02603039779369514</v>
+      </c>
+      <c r="H12">
+        <v>-0.02520512753230423</v>
+      </c>
+      <c r="I12">
+        <v>-0.01660694621704639</v>
+      </c>
+      <c r="J12">
+        <v>0.01537526518455317</v>
+      </c>
+      <c r="K12">
+        <v>-0.0006341058256099844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01147081078193172</v>
+        <v>0.005338480149439395</v>
       </c>
       <c r="C13">
-        <v>0.1176116724624857</v>
+        <v>-0.121163498371779</v>
       </c>
       <c r="D13">
-        <v>0.06612898276655535</v>
+        <v>0.0421845186152769</v>
       </c>
       <c r="E13">
-        <v>-0.05661721164621045</v>
+        <v>0.1191244461000516</v>
       </c>
       <c r="F13">
-        <v>0.01915301360739279</v>
+        <v>0.1027032389503525</v>
       </c>
       <c r="G13">
-        <v>-0.1734569640226032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1214712389278037</v>
+      </c>
+      <c r="H13">
+        <v>-0.1458897740765797</v>
+      </c>
+      <c r="I13">
+        <v>0.1192246361167378</v>
+      </c>
+      <c r="J13">
+        <v>-0.181994085594783</v>
+      </c>
+      <c r="K13">
+        <v>-0.2166909583413412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.007414456723405305</v>
+        <v>0.02000490354747293</v>
       </c>
       <c r="C14">
-        <v>0.0692671758811404</v>
+        <v>-0.07569890252569414</v>
       </c>
       <c r="D14">
-        <v>0.03594864720769198</v>
+        <v>0.04963134922423228</v>
       </c>
       <c r="E14">
-        <v>-0.03531799748339829</v>
+        <v>0.04397080845952332</v>
       </c>
       <c r="F14">
-        <v>0.00591901957532745</v>
+        <v>-0.002377394450711036</v>
       </c>
       <c r="G14">
-        <v>-0.06430644560220301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0732971645558218</v>
+      </c>
+      <c r="H14">
+        <v>-0.2046364267055847</v>
+      </c>
+      <c r="I14">
+        <v>-0.01590476974717509</v>
+      </c>
+      <c r="J14">
+        <v>0.02358913570017354</v>
+      </c>
+      <c r="K14">
+        <v>-0.1194178743095345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.006143084365156089</v>
+        <v>0.003588653353651509</v>
       </c>
       <c r="C15">
-        <v>0.09951920911888214</v>
+        <v>-0.08300139148112796</v>
       </c>
       <c r="D15">
-        <v>0.04789398153912885</v>
+        <v>0.03474358456948898</v>
       </c>
       <c r="E15">
-        <v>-0.04930370177560715</v>
+        <v>-0.004234772521884156</v>
       </c>
       <c r="F15">
-        <v>-0.02198051019522029</v>
+        <v>0.02473832644100028</v>
       </c>
       <c r="G15">
-        <v>-0.03612244893012695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02188379951868152</v>
+      </c>
+      <c r="H15">
+        <v>-0.09473050625497277</v>
+      </c>
+      <c r="I15">
+        <v>-0.03221569190591346</v>
+      </c>
+      <c r="J15">
+        <v>0.0204065549978601</v>
+      </c>
+      <c r="K15">
+        <v>-0.06909562329396843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007136990360706439</v>
+        <v>0.01519106887096239</v>
       </c>
       <c r="C16">
-        <v>0.05553610558473814</v>
+        <v>-0.06203615986781252</v>
       </c>
       <c r="D16">
-        <v>0.02399479499474361</v>
+        <v>0.02634676889317295</v>
       </c>
       <c r="E16">
-        <v>0.01144030771824584</v>
+        <v>-0.001514961149001025</v>
       </c>
       <c r="F16">
-        <v>0.003569662680514004</v>
+        <v>-0.00901840271690872</v>
       </c>
       <c r="G16">
-        <v>-0.03230080081847486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.007986379427458615</v>
+      </c>
+      <c r="H16">
+        <v>-0.02132543186817347</v>
+      </c>
+      <c r="I16">
+        <v>-0.0141207380482541</v>
+      </c>
+      <c r="J16">
+        <v>0.01817604342094285</v>
+      </c>
+      <c r="K16">
+        <v>0.005181232949521684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01020057411335164</v>
+        <v>0.01436155576317469</v>
       </c>
       <c r="C20">
-        <v>0.08838659298266005</v>
+        <v>-0.08631708748133234</v>
       </c>
       <c r="D20">
-        <v>0.032071553468446</v>
+        <v>0.02609744255996587</v>
       </c>
       <c r="E20">
-        <v>0.01590806762061378</v>
+        <v>-0.02372048147869412</v>
       </c>
       <c r="F20">
-        <v>-0.03680610070162176</v>
+        <v>-0.009729884432414805</v>
       </c>
       <c r="G20">
-        <v>-0.09522078704956485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03548364917991852</v>
+      </c>
+      <c r="H20">
+        <v>-0.07592357935974541</v>
+      </c>
+      <c r="I20">
+        <v>-0.01800316015270246</v>
+      </c>
+      <c r="J20">
+        <v>0.01567492658236472</v>
+      </c>
+      <c r="K20">
+        <v>0.01217624708863702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.01025285583109294</v>
+        <v>0.01197913638361587</v>
       </c>
       <c r="C21">
-        <v>0.09903206549676019</v>
+        <v>-0.07259119425260993</v>
       </c>
       <c r="D21">
-        <v>-0.02545092309737213</v>
+        <v>0.02177116785116167</v>
       </c>
       <c r="E21">
-        <v>-0.05983077022088178</v>
+        <v>0.09480157289618643</v>
       </c>
       <c r="F21">
-        <v>0.02337359218932689</v>
+        <v>0.01947162563370223</v>
       </c>
       <c r="G21">
-        <v>-0.05137985907737944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.02715477099809681</v>
+      </c>
+      <c r="H21">
+        <v>-0.1457871091771881</v>
+      </c>
+      <c r="I21">
+        <v>0.02486218466243319</v>
+      </c>
+      <c r="J21">
+        <v>-0.009638367855295652</v>
+      </c>
+      <c r="K21">
+        <v>-0.03853969816514596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04543868130362544</v>
+        <v>0.005735980487348213</v>
       </c>
       <c r="C22">
-        <v>0.2241171615730973</v>
+        <v>-0.1783273600786161</v>
       </c>
       <c r="D22">
-        <v>-0.05365572453845504</v>
+        <v>0.0179985329135767</v>
       </c>
       <c r="E22">
-        <v>-0.2749265376781048</v>
+        <v>-0.09371905142308354</v>
       </c>
       <c r="F22">
-        <v>-0.2376012286268209</v>
+        <v>0.5261596093433718</v>
       </c>
       <c r="G22">
-        <v>0.154207293169331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.01046293542824577</v>
+      </c>
+      <c r="H22">
+        <v>0.2981027210411026</v>
+      </c>
+      <c r="I22">
+        <v>0.07550322783750267</v>
+      </c>
+      <c r="J22">
+        <v>0.0165056460952513</v>
+      </c>
+      <c r="K22">
+        <v>-0.1830019082019533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04684723767276094</v>
+        <v>0.01099914716647802</v>
       </c>
       <c r="C23">
-        <v>0.2266944801113601</v>
+        <v>-0.1820831384695206</v>
       </c>
       <c r="D23">
-        <v>-0.05869957774595293</v>
+        <v>0.01792716018474765</v>
       </c>
       <c r="E23">
-        <v>-0.2695970200905817</v>
+        <v>-0.08915725511942771</v>
       </c>
       <c r="F23">
-        <v>-0.2332480237907307</v>
+        <v>0.5100813635402252</v>
       </c>
       <c r="G23">
-        <v>0.1520499928918802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.01097590187577165</v>
+      </c>
+      <c r="H23">
+        <v>0.2789482615666165</v>
+      </c>
+      <c r="I23">
+        <v>0.06241398635904995</v>
+      </c>
+      <c r="J23">
+        <v>0.0194015892747004</v>
+      </c>
+      <c r="K23">
+        <v>-0.1718767729107557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.001428477196647792</v>
+        <v>0.01600759420537139</v>
       </c>
       <c r="C24">
-        <v>0.05232804258075729</v>
+        <v>-0.06561161812186168</v>
       </c>
       <c r="D24">
-        <v>0.0414757231533911</v>
+        <v>0.0394945306039263</v>
       </c>
       <c r="E24">
-        <v>0.0120967963376609</v>
+        <v>-0.00363655078949604</v>
       </c>
       <c r="F24">
-        <v>-0.01142374837423952</v>
+        <v>-0.009980601950480545</v>
       </c>
       <c r="G24">
-        <v>-0.05618942407435092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02323480871431214</v>
+      </c>
+      <c r="H24">
+        <v>-0.03996853728314308</v>
+      </c>
+      <c r="I24">
+        <v>-0.01801138834034526</v>
+      </c>
+      <c r="J24">
+        <v>0.01900077163690753</v>
+      </c>
+      <c r="K24">
+        <v>-0.002867434519113596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.004604944556740993</v>
+        <v>0.02024188440619864</v>
       </c>
       <c r="C25">
-        <v>0.06288753747780977</v>
+        <v>-0.06950005521132145</v>
       </c>
       <c r="D25">
-        <v>0.01896779256346027</v>
+        <v>0.03125329354796742</v>
       </c>
       <c r="E25">
-        <v>0.01847353823661644</v>
+        <v>-0.005679713387434893</v>
       </c>
       <c r="F25">
-        <v>-0.009459488279583596</v>
+        <v>-0.009296042886335346</v>
       </c>
       <c r="G25">
-        <v>-0.05256622079585931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01702536399645446</v>
+      </c>
+      <c r="H25">
+        <v>-0.03364515041989097</v>
+      </c>
+      <c r="I25">
+        <v>-0.02087592372774731</v>
+      </c>
+      <c r="J25">
+        <v>0.006374647761988254</v>
+      </c>
+      <c r="K25">
+        <v>-0.0149898087266952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.002092670645395693</v>
+        <v>0.0235434537491745</v>
       </c>
       <c r="C26">
-        <v>0.05288006569704666</v>
+        <v>-0.0574692936886709</v>
       </c>
       <c r="D26">
-        <v>0.06316364258471094</v>
+        <v>0.06245421489357578</v>
       </c>
       <c r="E26">
-        <v>-0.01329768627449351</v>
+        <v>-0.005945322493204327</v>
       </c>
       <c r="F26">
-        <v>0.01962752560422223</v>
+        <v>-0.01906592423225207</v>
       </c>
       <c r="G26">
-        <v>-0.03223864307776127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.004865896176707913</v>
+      </c>
+      <c r="H26">
+        <v>-0.09945811882716311</v>
+      </c>
+      <c r="I26">
+        <v>-0.05533247955801108</v>
+      </c>
+      <c r="J26">
+        <v>0.03188141271067738</v>
+      </c>
+      <c r="K26">
+        <v>0.120842150794975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3688075191222488</v>
+        <v>0.3156662504993682</v>
       </c>
       <c r="C28">
-        <v>-0.1023098906018527</v>
+        <v>0.1065612403518388</v>
       </c>
       <c r="D28">
-        <v>-0.004814756767403268</v>
+        <v>-0.03120755470363819</v>
       </c>
       <c r="E28">
-        <v>0.07296868630044555</v>
+        <v>0.009434774043736936</v>
       </c>
       <c r="F28">
-        <v>0.09171415062326498</v>
+        <v>0.04288211906271472</v>
       </c>
       <c r="G28">
-        <v>0.04143229760980632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1272402252641174</v>
+      </c>
+      <c r="H28">
+        <v>-0.05123319441272327</v>
+      </c>
+      <c r="I28">
+        <v>0.05734855460254849</v>
+      </c>
+      <c r="J28">
+        <v>-0.2032564314027978</v>
+      </c>
+      <c r="K28">
+        <v>0.02155703759140284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008293784900158977</v>
+        <v>0.01468139664991731</v>
       </c>
       <c r="C29">
-        <v>0.07365947696533201</v>
+        <v>-0.08250548122134779</v>
       </c>
       <c r="D29">
-        <v>0.04658598261935484</v>
+        <v>0.05408268545144729</v>
       </c>
       <c r="E29">
-        <v>-0.03066330564945341</v>
+        <v>0.04596468175083382</v>
       </c>
       <c r="F29">
-        <v>-0.002378720534146388</v>
+        <v>0.004331745277520676</v>
       </c>
       <c r="G29">
-        <v>-0.1024971454541455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1125671577249479</v>
+      </c>
+      <c r="H29">
+        <v>-0.2885482580865538</v>
+      </c>
+      <c r="I29">
+        <v>-0.02989801684555856</v>
+      </c>
+      <c r="J29">
+        <v>0.0008424996181713115</v>
+      </c>
+      <c r="K29">
+        <v>-0.1835574906419512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02338714595141947</v>
+        <v>0.02914163267843946</v>
       </c>
       <c r="C30">
-        <v>0.1687196473724422</v>
+        <v>-0.1432352846753538</v>
       </c>
       <c r="D30">
-        <v>0.07095939844004301</v>
+        <v>0.05593417571382546</v>
       </c>
       <c r="E30">
-        <v>-0.03247745865432727</v>
+        <v>-0.0170080113006497</v>
       </c>
       <c r="F30">
-        <v>-0.05147468755061659</v>
+        <v>0.06555783842698878</v>
       </c>
       <c r="G30">
-        <v>-0.006027688501239724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.007620949486563913</v>
+      </c>
+      <c r="H30">
+        <v>-0.03732254840735138</v>
+      </c>
+      <c r="I30">
+        <v>-0.0359206829083085</v>
+      </c>
+      <c r="J30">
+        <v>0.03668189778852606</v>
+      </c>
+      <c r="K30">
+        <v>0.0895581264518609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.0003933036660306984</v>
+        <v>0.01471235843831794</v>
       </c>
       <c r="C31">
-        <v>0.05676042338483106</v>
+        <v>-0.08099597446819418</v>
       </c>
       <c r="D31">
-        <v>0.03682608113013</v>
+        <v>0.04123193490021655</v>
       </c>
       <c r="E31">
-        <v>0.01606645002823942</v>
+        <v>0.002545775177456497</v>
       </c>
       <c r="F31">
-        <v>0.01603387148158073</v>
+        <v>-0.001585668587518115</v>
       </c>
       <c r="G31">
-        <v>-0.02394684993482738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02435752592642903</v>
+      </c>
+      <c r="H31">
+        <v>-0.03115123430764156</v>
+      </c>
+      <c r="I31">
+        <v>-0.020241453186396</v>
+      </c>
+      <c r="J31">
+        <v>0.005542310228172522</v>
+      </c>
+      <c r="K31">
+        <v>-0.02480773177678648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.02029232221173573</v>
+        <v>0.02203151238603568</v>
       </c>
       <c r="C32">
-        <v>0.08586811018064107</v>
+        <v>-0.05272715600565606</v>
       </c>
       <c r="D32">
-        <v>0.001892078375867259</v>
+        <v>0.02438516616659607</v>
       </c>
       <c r="E32">
-        <v>-0.1583733475298226</v>
+        <v>0.05914764568389176</v>
       </c>
       <c r="F32">
-        <v>-0.03085976501457082</v>
+        <v>0.1004263246108721</v>
       </c>
       <c r="G32">
-        <v>-0.07210905436822683</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06464270089216453</v>
+      </c>
+      <c r="H32">
+        <v>-0.1684895891810125</v>
+      </c>
+      <c r="I32">
+        <v>0.06930486315330793</v>
+      </c>
+      <c r="J32">
+        <v>-0.2602615071928979</v>
+      </c>
+      <c r="K32">
+        <v>-0.02347363509371274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01640203504636194</v>
+        <v>0.01725542758093461</v>
       </c>
       <c r="C33">
-        <v>0.08823025963641457</v>
+        <v>-0.1053307150218434</v>
       </c>
       <c r="D33">
-        <v>0.06243394651286702</v>
+        <v>0.05044504774496043</v>
       </c>
       <c r="E33">
-        <v>-0.01018942778156613</v>
+        <v>-0.006923469108925604</v>
       </c>
       <c r="F33">
-        <v>0.003650522156888988</v>
+        <v>0.01311974800084145</v>
       </c>
       <c r="G33">
-        <v>-0.03335947946923828</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02127389282711422</v>
+      </c>
+      <c r="H33">
+        <v>-0.05321172845615147</v>
+      </c>
+      <c r="I33">
+        <v>-0.01921422549932817</v>
+      </c>
+      <c r="J33">
+        <v>-0.02179079547122787</v>
+      </c>
+      <c r="K33">
+        <v>0.003231649115461346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0005403962399000783</v>
+        <v>0.0154597372700913</v>
       </c>
       <c r="C34">
-        <v>0.04564828357191436</v>
+        <v>-0.04803714780995631</v>
       </c>
       <c r="D34">
-        <v>0.01826033495652994</v>
+        <v>0.0191834217897621</v>
       </c>
       <c r="E34">
-        <v>-0.002313814872382678</v>
+        <v>0.006245742633428553</v>
       </c>
       <c r="F34">
-        <v>0.01210341140443003</v>
+        <v>-0.01118908125283516</v>
       </c>
       <c r="G34">
-        <v>-0.03556086280557558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0156530473848401</v>
+      </c>
+      <c r="H34">
+        <v>-0.007090661905713092</v>
+      </c>
+      <c r="I34">
+        <v>-0.01899687551191765</v>
+      </c>
+      <c r="J34">
+        <v>0.01345239742318987</v>
+      </c>
+      <c r="K34">
+        <v>-0.002667508173692069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003954917325421092</v>
+        <v>0.01051728417175871</v>
       </c>
       <c r="C35">
-        <v>0.02435715912640372</v>
+        <v>-0.04367334156215801</v>
       </c>
       <c r="D35">
-        <v>0.008077055177164283</v>
+        <v>0.0226617682773558</v>
       </c>
       <c r="E35">
-        <v>-0.007662185519911366</v>
+        <v>0.009889378604890189</v>
       </c>
       <c r="F35">
-        <v>-0.002543724252982953</v>
+        <v>0.005718375978764098</v>
       </c>
       <c r="G35">
-        <v>-0.03267482784078053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04098537281053685</v>
+      </c>
+      <c r="H35">
+        <v>-0.1470583651219239</v>
+      </c>
+      <c r="I35">
+        <v>-0.04426303598067747</v>
+      </c>
+      <c r="J35">
+        <v>-0.01611229097508397</v>
+      </c>
+      <c r="K35">
+        <v>-0.1576303275985647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.0008852743725496044</v>
+        <v>0.0162808341117576</v>
       </c>
       <c r="C36">
-        <v>0.04862723279666915</v>
+        <v>-0.04864058865845937</v>
       </c>
       <c r="D36">
-        <v>0.05303884463550816</v>
+        <v>0.0473563547654295</v>
       </c>
       <c r="E36">
-        <v>-0.003575810014127674</v>
+        <v>-0.001613528867054416</v>
       </c>
       <c r="F36">
-        <v>0.005811041553800241</v>
+        <v>0.004108710070169796</v>
       </c>
       <c r="G36">
-        <v>-0.02060144503620082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.005991252975675804</v>
+      </c>
+      <c r="H36">
+        <v>-0.07723827196613292</v>
+      </c>
+      <c r="I36">
+        <v>-0.01181067008793769</v>
+      </c>
+      <c r="J36">
+        <v>0.01472745296888463</v>
+      </c>
+      <c r="K36">
+        <v>0.04354317917337138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03040129434285536</v>
+        <v>0.01162664847675915</v>
       </c>
       <c r="C38">
-        <v>0.05792214051933312</v>
+        <v>-0.06064007914190678</v>
       </c>
       <c r="D38">
-        <v>0.04852931552822295</v>
+        <v>0.0413441556616037</v>
       </c>
       <c r="E38">
-        <v>0.009137090231554483</v>
+        <v>-0.03090798879653251</v>
       </c>
       <c r="F38">
-        <v>-0.007767656747711542</v>
+        <v>0.01491081793070906</v>
       </c>
       <c r="G38">
-        <v>-0.01903271442931666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.005022557315718084</v>
+      </c>
+      <c r="H38">
+        <v>-0.08300503756792769</v>
+      </c>
+      <c r="I38">
+        <v>0.02880874933352208</v>
+      </c>
+      <c r="J38">
+        <v>-0.05350091674106426</v>
+      </c>
+      <c r="K38">
+        <v>-0.03482790015230679</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002185682679433872</v>
+        <v>0.01760065862334748</v>
       </c>
       <c r="C39">
-        <v>0.1289498971331039</v>
+        <v>-0.1288935096168631</v>
       </c>
       <c r="D39">
-        <v>0.05198283618068662</v>
+        <v>0.05727324099942284</v>
       </c>
       <c r="E39">
-        <v>-0.004831262562873785</v>
+        <v>0.009406495351230925</v>
       </c>
       <c r="F39">
-        <v>-0.0203153948659135</v>
+        <v>-0.002817178195005475</v>
       </c>
       <c r="G39">
-        <v>-0.08044674902794025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03956761427917468</v>
+      </c>
+      <c r="H39">
+        <v>-0.05716669572831002</v>
+      </c>
+      <c r="I39">
+        <v>-0.01071188719887066</v>
+      </c>
+      <c r="J39">
+        <v>0.07832825939557771</v>
+      </c>
+      <c r="K39">
+        <v>0.03221941346449073</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.005769419036783879</v>
+        <v>0.01189522506800515</v>
       </c>
       <c r="C40">
-        <v>0.02376786933812333</v>
+        <v>-0.05621533594748903</v>
       </c>
       <c r="D40">
-        <v>0.02211034288813624</v>
+        <v>0.03980485161940155</v>
       </c>
       <c r="E40">
-        <v>-0.1285361240942767</v>
+        <v>0.0346046854396502</v>
       </c>
       <c r="F40">
-        <v>-0.07418491120482772</v>
+        <v>0.03713905835276819</v>
       </c>
       <c r="G40">
-        <v>-0.07677821434297853</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1549769732717351</v>
+      </c>
+      <c r="H40">
+        <v>-0.03601805989317824</v>
+      </c>
+      <c r="I40">
+        <v>-0.05325546189449865</v>
+      </c>
+      <c r="J40">
+        <v>-0.02147555866907086</v>
+      </c>
+      <c r="K40">
+        <v>-0.2736415340762158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01290573386366125</v>
+        <v>0.02231794461279486</v>
       </c>
       <c r="C41">
-        <v>0.02119426204706212</v>
+        <v>-0.04772100080793473</v>
       </c>
       <c r="D41">
-        <v>0.008437108667286001</v>
+        <v>0.0166075492849508</v>
       </c>
       <c r="E41">
-        <v>0.01454833067426332</v>
+        <v>-0.001817943759504732</v>
       </c>
       <c r="F41">
-        <v>0.02989671010508654</v>
+        <v>-0.02307565791137468</v>
       </c>
       <c r="G41">
-        <v>0.03378259952977166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008947516127498445</v>
+      </c>
+      <c r="H41">
+        <v>-0.02128403831546662</v>
+      </c>
+      <c r="I41">
+        <v>0.003995322209767968</v>
+      </c>
+      <c r="J41">
+        <v>-0.02806902320322497</v>
+      </c>
+      <c r="K41">
+        <v>-0.0477476694546313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.001730627041595505</v>
+        <v>0.01844153267766299</v>
       </c>
       <c r="C43">
-        <v>0.02140743542590577</v>
+        <v>-0.04418047953459888</v>
       </c>
       <c r="D43">
-        <v>0.01655711485358257</v>
+        <v>0.02839528494915592</v>
       </c>
       <c r="E43">
-        <v>0.00704439920105916</v>
+        <v>-0.01138554212231993</v>
       </c>
       <c r="F43">
-        <v>-0.004170253111240829</v>
+        <v>-0.01134556544945503</v>
       </c>
       <c r="G43">
-        <v>0.001622805318837912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.001268071422112331</v>
+      </c>
+      <c r="H43">
+        <v>-0.0402604612919815</v>
+      </c>
+      <c r="I43">
+        <v>0.002687572276121927</v>
+      </c>
+      <c r="J43">
+        <v>0.0007254577259301651</v>
+      </c>
+      <c r="K43">
+        <v>-0.03672787518478869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02146589983463579</v>
+        <v>0.01518265586858388</v>
       </c>
       <c r="C44">
-        <v>0.09654813828587043</v>
+        <v>-0.09864056817178872</v>
       </c>
       <c r="D44">
-        <v>0.03834482646761249</v>
+        <v>0.05829082284397952</v>
       </c>
       <c r="E44">
-        <v>-0.03981184822306257</v>
+        <v>-0.0295892637701685</v>
       </c>
       <c r="F44">
-        <v>-0.05129861195817103</v>
+        <v>0.06178998684123767</v>
       </c>
       <c r="G44">
-        <v>-0.05257057565671876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04594761920233743</v>
+      </c>
+      <c r="H44">
+        <v>-0.0569293151502586</v>
+      </c>
+      <c r="I44">
+        <v>-0.005647585320994213</v>
+      </c>
+      <c r="J44">
+        <v>0.04502872319333828</v>
+      </c>
+      <c r="K44">
+        <v>0.08537902247750681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.005445323472697279</v>
+        <v>0.004189581105104686</v>
       </c>
       <c r="C46">
-        <v>0.0651008464547632</v>
+        <v>-0.06354314688932124</v>
       </c>
       <c r="D46">
-        <v>0.04324136571918917</v>
+        <v>0.03026215410924426</v>
       </c>
       <c r="E46">
-        <v>-0.0252648568661148</v>
+        <v>0.006835461101506492</v>
       </c>
       <c r="F46">
-        <v>-0.01181236640042571</v>
+        <v>-0.01021647260219075</v>
       </c>
       <c r="G46">
-        <v>-0.05769179065142269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03484573781224019</v>
+      </c>
+      <c r="H46">
+        <v>-0.1034221566687606</v>
+      </c>
+      <c r="I46">
+        <v>0.01107671002382137</v>
+      </c>
+      <c r="J46">
+        <v>0.007199296579196184</v>
+      </c>
+      <c r="K46">
+        <v>-0.07784510347742742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005500869148115743</v>
+        <v>0.0222384956650552</v>
       </c>
       <c r="C47">
-        <v>0.0708768673026641</v>
+        <v>-0.07925817097717744</v>
       </c>
       <c r="D47">
-        <v>0.04113356105673811</v>
+        <v>0.04133271691126993</v>
       </c>
       <c r="E47">
-        <v>0.0190624439500732</v>
+        <v>0.005817623480630237</v>
       </c>
       <c r="F47">
-        <v>0.04072862286247884</v>
+        <v>-0.01771035523111079</v>
       </c>
       <c r="G47">
-        <v>-0.04937183996844782</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007426979312657601</v>
+      </c>
+      <c r="H47">
+        <v>-0.07225768706470621</v>
+      </c>
+      <c r="I47">
+        <v>0.00538462489273633</v>
+      </c>
+      <c r="J47">
+        <v>-0.02520359455584099</v>
+      </c>
+      <c r="K47">
+        <v>-0.02832787570265449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006247528924874529</v>
+        <v>0.02168556340405188</v>
       </c>
       <c r="C48">
-        <v>0.05220847417998552</v>
+        <v>-0.0506138822218245</v>
       </c>
       <c r="D48">
-        <v>0.0583824275586259</v>
+        <v>0.05426335412737055</v>
       </c>
       <c r="E48">
-        <v>0.0004828332560289533</v>
+        <v>-0.006509004286238458</v>
       </c>
       <c r="F48">
-        <v>0.004170415239498831</v>
+        <v>-0.00450733256869868</v>
       </c>
       <c r="G48">
-        <v>-0.0302506071757668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.006737879350759792</v>
+      </c>
+      <c r="H48">
+        <v>-0.09668783445199047</v>
+      </c>
+      <c r="I48">
+        <v>-0.03995786883657402</v>
+      </c>
+      <c r="J48">
+        <v>0.02372099839933324</v>
+      </c>
+      <c r="K48">
+        <v>0.09892800722794985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008534774602100684</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02757006359393804</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.005805097475370079</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.006530650312228835</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03602060243413061</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03360858771451401</v>
+      </c>
+      <c r="H49">
+        <v>0.02262409279947659</v>
+      </c>
+      <c r="I49">
+        <v>-0.05112843143925407</v>
+      </c>
+      <c r="J49">
+        <v>0.0361974423450433</v>
+      </c>
+      <c r="K49">
+        <v>0.02455722438001152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.001965421227149734</v>
+        <v>0.01507640051498705</v>
       </c>
       <c r="C50">
-        <v>0.06776121279248999</v>
+        <v>-0.07954915201399318</v>
       </c>
       <c r="D50">
-        <v>0.03419191223680466</v>
+        <v>0.03076165714094507</v>
       </c>
       <c r="E50">
-        <v>0.001993991489680133</v>
+        <v>-0.007928248296730195</v>
       </c>
       <c r="F50">
-        <v>-0.003017544634993695</v>
+        <v>0.005476038072867167</v>
       </c>
       <c r="G50">
-        <v>-0.02833168305459923</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008787321873600082</v>
+      </c>
+      <c r="H50">
+        <v>-0.05342414274756935</v>
+      </c>
+      <c r="I50">
+        <v>-0.009420158119918717</v>
+      </c>
+      <c r="J50">
+        <v>-0.0475718456043426</v>
+      </c>
+      <c r="K50">
+        <v>-0.01530512258732004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.001070984249270043</v>
+        <v>-0.006308150069361015</v>
       </c>
       <c r="C51">
-        <v>0.07692820607305589</v>
+        <v>-0.03646736634997123</v>
       </c>
       <c r="D51">
-        <v>0.01883140153313</v>
+        <v>0.02003959471666728</v>
       </c>
       <c r="E51">
-        <v>-0.05003291253567312</v>
+        <v>0.006084409594115907</v>
       </c>
       <c r="F51">
-        <v>-0.04549758205502619</v>
+        <v>0.02839532183096577</v>
       </c>
       <c r="G51">
-        <v>-0.01994529398499998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0258098587265272</v>
+      </c>
+      <c r="H51">
+        <v>-0.1038708557854651</v>
+      </c>
+      <c r="I51">
+        <v>-0.03540315109459529</v>
+      </c>
+      <c r="J51">
+        <v>0.002967735597221578</v>
+      </c>
+      <c r="K51">
+        <v>0.1066156722283807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03665423291635764</v>
+        <v>0.05733186579975522</v>
       </c>
       <c r="C53">
-        <v>0.1271994240206505</v>
+        <v>-0.1312867726213191</v>
       </c>
       <c r="D53">
-        <v>0.07423578053799494</v>
+        <v>0.05672983533218662</v>
       </c>
       <c r="E53">
-        <v>0.1248781328686295</v>
+        <v>0.01621805557420836</v>
       </c>
       <c r="F53">
-        <v>0.0798684287837374</v>
+        <v>-0.07287453066309112</v>
       </c>
       <c r="G53">
-        <v>0.03427942011632172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.084074947320945</v>
+      </c>
+      <c r="H53">
+        <v>0.03305259799826132</v>
+      </c>
+      <c r="I53">
+        <v>-0.001314406543120574</v>
+      </c>
+      <c r="J53">
+        <v>-0.03410160706549368</v>
+      </c>
+      <c r="K53">
+        <v>-0.008584490602382032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.00580012040291761</v>
+        <v>0.01831308430623727</v>
       </c>
       <c r="C54">
-        <v>0.06304632865295405</v>
+        <v>-0.07442727226820667</v>
       </c>
       <c r="D54">
-        <v>0.006627309829140142</v>
+        <v>0.01176489433125734</v>
       </c>
       <c r="E54">
-        <v>0.0281048618540162</v>
+        <v>0.005698207075721775</v>
       </c>
       <c r="F54">
-        <v>-0.005998372075436101</v>
+        <v>-0.02177738432509213</v>
       </c>
       <c r="G54">
-        <v>-0.01821641964013338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01669678523177336</v>
+      </c>
+      <c r="H54">
+        <v>-0.04684115142344009</v>
+      </c>
+      <c r="I54">
+        <v>-0.0293223811905471</v>
+      </c>
+      <c r="J54">
+        <v>0.0209282048665624</v>
+      </c>
+      <c r="K54">
+        <v>0.0006376603855530936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01903268327914747</v>
+        <v>0.03123546639414382</v>
       </c>
       <c r="C55">
-        <v>0.08089096598578586</v>
+        <v>-0.08398615033280291</v>
       </c>
       <c r="D55">
-        <v>0.0674266129226317</v>
+        <v>0.05518225861797016</v>
       </c>
       <c r="E55">
-        <v>0.05619363246180615</v>
+        <v>0.007173926998744155</v>
       </c>
       <c r="F55">
-        <v>0.05170011751356032</v>
+        <v>-0.05385899140747748</v>
       </c>
       <c r="G55">
-        <v>-0.005170559882852713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03973047925643162</v>
+      </c>
+      <c r="H55">
+        <v>0.02065242520440322</v>
+      </c>
+      <c r="I55">
+        <v>-0.01206040168691412</v>
+      </c>
+      <c r="J55">
+        <v>0.01060281542857767</v>
+      </c>
+      <c r="K55">
+        <v>-0.003232727018732682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.02112760519536715</v>
+        <v>0.04439128993557728</v>
       </c>
       <c r="C56">
-        <v>0.1581067761769432</v>
+        <v>-0.1501358073209967</v>
       </c>
       <c r="D56">
-        <v>0.07252279120787521</v>
+        <v>0.08103910888802932</v>
       </c>
       <c r="E56">
-        <v>0.1099247314676944</v>
+        <v>0.04530980604657855</v>
       </c>
       <c r="F56">
-        <v>0.1137816016022743</v>
+        <v>-0.09572574373949945</v>
       </c>
       <c r="G56">
-        <v>0.08055882862811634</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1624048337983451</v>
+      </c>
+      <c r="H56">
+        <v>0.05042503721124229</v>
+      </c>
+      <c r="I56">
+        <v>-0.0223277223759175</v>
+      </c>
+      <c r="J56">
+        <v>-0.01530334443422227</v>
+      </c>
+      <c r="K56">
+        <v>0.01765532453391783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0341538557072398</v>
+        <v>0.02128902145400406</v>
       </c>
       <c r="C58">
-        <v>0.2965188327207639</v>
+        <v>-0.1837652150828232</v>
       </c>
       <c r="D58">
-        <v>-0.0118071155378554</v>
+        <v>0.040901264031291</v>
       </c>
       <c r="E58">
-        <v>-0.1616479000803611</v>
+        <v>-0.04387231588125273</v>
       </c>
       <c r="F58">
-        <v>-0.2731587591838126</v>
+        <v>0.3149458463191214</v>
       </c>
       <c r="G58">
-        <v>0.1779931689442024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.08475317080808872</v>
+      </c>
+      <c r="H58">
+        <v>-0.06288150373529811</v>
+      </c>
+      <c r="I58">
+        <v>0.0212462476828217</v>
+      </c>
+      <c r="J58">
+        <v>-0.04725948988881708</v>
+      </c>
+      <c r="K58">
+        <v>0.3631808683591854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2807226158751497</v>
+        <v>0.2895145296116819</v>
       </c>
       <c r="C59">
-        <v>-0.008033144770761684</v>
+        <v>0.04430498691751977</v>
       </c>
       <c r="D59">
-        <v>-0.01015787009341154</v>
+        <v>-0.003610218315248992</v>
       </c>
       <c r="E59">
-        <v>-0.06054407754536852</v>
+        <v>0.01856042924611385</v>
       </c>
       <c r="F59">
-        <v>0.0429329384298436</v>
+        <v>0.04560953080158866</v>
       </c>
       <c r="G59">
-        <v>-0.009080895584087242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.003421243860527966</v>
+      </c>
+      <c r="H59">
+        <v>0.0202880153643372</v>
+      </c>
+      <c r="I59">
+        <v>0.021422193766898</v>
+      </c>
+      <c r="J59">
+        <v>-0.02509554418760715</v>
+      </c>
+      <c r="K59">
+        <v>-0.02755873047773669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1072451475440299</v>
+        <v>0.1445296608324569</v>
       </c>
       <c r="C60">
-        <v>0.1383273870956142</v>
+        <v>-0.1512803427395959</v>
       </c>
       <c r="D60">
-        <v>0.08061290894188911</v>
+        <v>0.04747446140401321</v>
       </c>
       <c r="E60">
-        <v>0.04234358534234487</v>
+        <v>0.03931847152763426</v>
       </c>
       <c r="F60">
-        <v>0.09664732582221212</v>
+        <v>-0.1152962766026</v>
       </c>
       <c r="G60">
-        <v>-0.3073607672782557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2598748491822767</v>
+      </c>
+      <c r="H60">
+        <v>0.2274776451749202</v>
+      </c>
+      <c r="I60">
+        <v>0.02849695576359845</v>
+      </c>
+      <c r="J60">
+        <v>0.03001132614889316</v>
+      </c>
+      <c r="K60">
+        <v>0.04268930251271652</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.001675551443599993</v>
+        <v>0.0206162782743753</v>
       </c>
       <c r="C61">
-        <v>0.08071537565663003</v>
+        <v>-0.09669501692364137</v>
       </c>
       <c r="D61">
-        <v>0.05910731963893892</v>
+        <v>0.05381407545766004</v>
       </c>
       <c r="E61">
-        <v>0.02503781890824285</v>
+        <v>0.009896333127392645</v>
       </c>
       <c r="F61">
-        <v>0.01136618624646608</v>
+        <v>-0.0313762525971332</v>
       </c>
       <c r="G61">
-        <v>-0.08305111507444339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02426970065044418</v>
+      </c>
+      <c r="H61">
+        <v>-0.05927910976153884</v>
+      </c>
+      <c r="I61">
+        <v>-0.03258995897428341</v>
+      </c>
+      <c r="J61">
+        <v>0.0245661105778899</v>
+      </c>
+      <c r="K61">
+        <v>-0.01562938409303105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002618701795118726</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01302773162856384</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003044210543348682</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.008609747075700997</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.014602630902965</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01716298235171787</v>
+      </c>
+      <c r="H62">
+        <v>-0.001752670342932962</v>
+      </c>
+      <c r="I62">
+        <v>-0.05531517965912044</v>
+      </c>
+      <c r="J62">
+        <v>-0.02296489777365105</v>
+      </c>
+      <c r="K62">
+        <v>-0.0066666285247132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.002731677636043705</v>
+        <v>0.02661844257089201</v>
       </c>
       <c r="C63">
-        <v>0.05932622019718523</v>
+        <v>-0.06698821121074112</v>
       </c>
       <c r="D63">
-        <v>0.04091694589072895</v>
+        <v>0.05989896911624881</v>
       </c>
       <c r="E63">
-        <v>0.02874346380824061</v>
+        <v>0.00568037679280356</v>
       </c>
       <c r="F63">
-        <v>-0.00473938019460529</v>
+        <v>-0.0186340803875924</v>
       </c>
       <c r="G63">
-        <v>-0.02719829021404265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-1.030810167770968e-05</v>
+      </c>
+      <c r="H63">
+        <v>-0.05640569579055579</v>
+      </c>
+      <c r="I63">
+        <v>-0.0375142599767069</v>
+      </c>
+      <c r="J63">
+        <v>0.01039321006859728</v>
+      </c>
+      <c r="K63">
+        <v>-0.009811888221178141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002119874104043455</v>
+        <v>0.01433337573182426</v>
       </c>
       <c r="C64">
-        <v>0.07595066277887914</v>
+        <v>-0.09130714278071228</v>
       </c>
       <c r="D64">
-        <v>0.07117030454365689</v>
+        <v>0.03460545993750235</v>
       </c>
       <c r="E64">
-        <v>-0.006275782521360445</v>
+        <v>-0.0255079811793737</v>
       </c>
       <c r="F64">
-        <v>-0.02342584002786386</v>
+        <v>0.02473457937935837</v>
       </c>
       <c r="G64">
-        <v>-0.05646853436939827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06788504727254131</v>
+      </c>
+      <c r="H64">
+        <v>-0.05267074687947716</v>
+      </c>
+      <c r="I64">
+        <v>-0.03443824938530311</v>
+      </c>
+      <c r="J64">
+        <v>0.0423518551916752</v>
+      </c>
+      <c r="K64">
+        <v>-0.01601630716764797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.00898032204822497</v>
+        <v>0.03000148732137537</v>
       </c>
       <c r="C65">
-        <v>0.07933685331056897</v>
+        <v>-0.09578258845579686</v>
       </c>
       <c r="D65">
-        <v>0.03820821480862549</v>
+        <v>0.0202528776433732</v>
       </c>
       <c r="E65">
-        <v>-0.0347285139599058</v>
+        <v>-0.01526230668692166</v>
       </c>
       <c r="F65">
-        <v>-0.02472287874675834</v>
+        <v>0.001630641823294469</v>
       </c>
       <c r="G65">
-        <v>-0.02662164886598693</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.08812508414314328</v>
+      </c>
+      <c r="H65">
+        <v>-0.01021531815389865</v>
+      </c>
+      <c r="I65">
+        <v>0.02463381938593262</v>
+      </c>
+      <c r="J65">
+        <v>0.09781292856594767</v>
+      </c>
+      <c r="K65">
+        <v>0.0930031923267222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.001761902172441043</v>
+        <v>0.01437001768341675</v>
       </c>
       <c r="C66">
-        <v>0.1702304052767442</v>
+        <v>-0.1664573755069533</v>
       </c>
       <c r="D66">
-        <v>0.04002596649963299</v>
+        <v>0.04773255131005623</v>
       </c>
       <c r="E66">
-        <v>-0.04579986257686262</v>
+        <v>0.01620988236821631</v>
       </c>
       <c r="F66">
-        <v>-0.01157107557951871</v>
+        <v>0.009517093396554889</v>
       </c>
       <c r="G66">
-        <v>-0.1022072120653215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02506228917569191</v>
+      </c>
+      <c r="H66">
+        <v>-0.06599756372365688</v>
+      </c>
+      <c r="I66">
+        <v>-0.02492249468991957</v>
+      </c>
+      <c r="J66">
+        <v>0.05082405192889949</v>
+      </c>
+      <c r="K66">
+        <v>0.02365817230487461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02694898283767014</v>
+        <v>0.02005563186410747</v>
       </c>
       <c r="C67">
-        <v>0.03271602603554339</v>
+        <v>-0.05044766971884845</v>
       </c>
       <c r="D67">
-        <v>0.06346967788645215</v>
+        <v>0.04363532452009247</v>
       </c>
       <c r="E67">
-        <v>0.03962154944258676</v>
+        <v>-0.02635855413393488</v>
       </c>
       <c r="F67">
-        <v>0.003752847598482166</v>
+        <v>-0.02113568115748515</v>
       </c>
       <c r="G67">
-        <v>-0.02922161142978183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0199897002283612</v>
+      </c>
+      <c r="H67">
+        <v>-0.05889576784725681</v>
+      </c>
+      <c r="I67">
+        <v>0.04069811342341912</v>
+      </c>
+      <c r="J67">
+        <v>-0.04273453946204211</v>
+      </c>
+      <c r="K67">
+        <v>-0.04760071231967639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2877345846006573</v>
+        <v>0.295927500952917</v>
       </c>
       <c r="C68">
-        <v>-0.03678961271688063</v>
+        <v>0.0678769042378666</v>
       </c>
       <c r="D68">
-        <v>0.0007521289273831907</v>
+        <v>-0.02256612999080821</v>
       </c>
       <c r="E68">
-        <v>-0.03409468388490406</v>
+        <v>0.008271657511017423</v>
       </c>
       <c r="F68">
-        <v>-0.001925732992733864</v>
+        <v>0.03644521847160068</v>
       </c>
       <c r="G68">
-        <v>0.007578071570003496</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0218133788065184</v>
+      </c>
+      <c r="H68">
+        <v>-0.01947374088764643</v>
+      </c>
+      <c r="I68">
+        <v>-0.05379058138474212</v>
+      </c>
+      <c r="J68">
+        <v>-0.0534769475424304</v>
+      </c>
+      <c r="K68">
+        <v>0.002280211191214559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01033427281833896</v>
+        <v>0.008047173851886335</v>
       </c>
       <c r="C69">
-        <v>0.0453476752352429</v>
+        <v>-0.04880520275271868</v>
       </c>
       <c r="D69">
-        <v>0.06131477413343481</v>
+        <v>0.02317910714627688</v>
       </c>
       <c r="E69">
-        <v>0.02008541024263555</v>
+        <v>0.002492038681025821</v>
       </c>
       <c r="F69">
-        <v>0.002792535863299026</v>
+        <v>-0.01287659771834464</v>
       </c>
       <c r="G69">
-        <v>-0.02417517905940867</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02780345404210292</v>
+      </c>
+      <c r="H69">
+        <v>-0.03746496137696966</v>
+      </c>
+      <c r="I69">
+        <v>-0.005381751839101024</v>
+      </c>
+      <c r="J69">
+        <v>-0.02761268774830502</v>
+      </c>
+      <c r="K69">
+        <v>-0.002096395639475171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2787621229527398</v>
+        <v>0.2774479562956898</v>
       </c>
       <c r="C71">
-        <v>-0.0481860805627671</v>
+        <v>0.07316889180126913</v>
       </c>
       <c r="D71">
-        <v>-0.007522106175427125</v>
+        <v>-0.02171447037206286</v>
       </c>
       <c r="E71">
-        <v>-0.02050388866799871</v>
+        <v>-0.01441795602311951</v>
       </c>
       <c r="F71">
-        <v>-0.02034044895657789</v>
+        <v>0.05982140438140274</v>
       </c>
       <c r="G71">
-        <v>0.002663560112747783</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0271977104561818</v>
+      </c>
+      <c r="H71">
+        <v>-0.04998040997041955</v>
+      </c>
+      <c r="I71">
+        <v>-0.005636468466209387</v>
+      </c>
+      <c r="J71">
+        <v>-0.123183692024993</v>
+      </c>
+      <c r="K71">
+        <v>0.03521657284436293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.0269615341539868</v>
+        <v>0.05451489684618641</v>
       </c>
       <c r="C72">
-        <v>0.1509647058487752</v>
+        <v>-0.1431017711333851</v>
       </c>
       <c r="D72">
-        <v>0.07398648582651124</v>
+        <v>0.0515952649893972</v>
       </c>
       <c r="E72">
-        <v>0.001382523531414573</v>
+        <v>0.01835526871612194</v>
       </c>
       <c r="F72">
-        <v>-0.08243122191976039</v>
+        <v>-0.04076331799016967</v>
       </c>
       <c r="G72">
-        <v>-0.114737506788234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01897176001276845</v>
+      </c>
+      <c r="H72">
+        <v>-0.02241610733579003</v>
+      </c>
+      <c r="I72">
+        <v>-0.04711453758137667</v>
+      </c>
+      <c r="J72">
+        <v>0.1170294051786291</v>
+      </c>
+      <c r="K72">
+        <v>0.06333877094956097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07068833230239815</v>
+        <v>0.1501647013438882</v>
       </c>
       <c r="C73">
-        <v>0.1085092489404481</v>
+        <v>-0.1964653293933485</v>
       </c>
       <c r="D73">
-        <v>0.1146886057131276</v>
+        <v>0.08750943939049198</v>
       </c>
       <c r="E73">
-        <v>0.1383847382178901</v>
+        <v>0.01857242406771017</v>
       </c>
       <c r="F73">
-        <v>0.1086064045665301</v>
+        <v>-0.242468879703547</v>
       </c>
       <c r="G73">
-        <v>-0.4278759801295882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3911076611988269</v>
+      </c>
+      <c r="H73">
+        <v>0.2841148403467038</v>
+      </c>
+      <c r="I73">
+        <v>0.09850644040233578</v>
+      </c>
+      <c r="J73">
+        <v>-0.07375285177529367</v>
+      </c>
+      <c r="K73">
+        <v>0.07602737569534432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.009743700516333529</v>
+        <v>0.03841742442679221</v>
       </c>
       <c r="C74">
-        <v>0.08429873616427391</v>
+        <v>-0.09963482210340729</v>
       </c>
       <c r="D74">
-        <v>0.07535779184755025</v>
+        <v>0.04670002230312746</v>
       </c>
       <c r="E74">
-        <v>0.07585408413466764</v>
+        <v>-0.00987206640782011</v>
       </c>
       <c r="F74">
-        <v>0.06194840321376732</v>
+        <v>-0.04033173760428027</v>
       </c>
       <c r="G74">
-        <v>0.02086682736454139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04746032286390241</v>
+      </c>
+      <c r="H74">
+        <v>0.008496278531603438</v>
+      </c>
+      <c r="I74">
+        <v>-0.03872687450754589</v>
+      </c>
+      <c r="J74">
+        <v>-0.007233954498499687</v>
+      </c>
+      <c r="K74">
+        <v>0.03506368836862126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05005124300579182</v>
+        <v>0.06335158019295986</v>
       </c>
       <c r="C75">
-        <v>0.1408528846973335</v>
+        <v>-0.1664861834958731</v>
       </c>
       <c r="D75">
-        <v>0.09667223375589991</v>
+        <v>0.08505476443107945</v>
       </c>
       <c r="E75">
-        <v>0.1744298509459134</v>
+        <v>-0.03866685505129181</v>
       </c>
       <c r="F75">
-        <v>0.1026803790450166</v>
+        <v>-0.118217487717005</v>
       </c>
       <c r="G75">
-        <v>0.1609780403157509</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2292119433634248</v>
+      </c>
+      <c r="H75">
+        <v>0.0443296006169853</v>
+      </c>
+      <c r="I75">
+        <v>-0.007470962728705742</v>
+      </c>
+      <c r="J75">
+        <v>-0.1221568299202167</v>
+      </c>
+      <c r="K75">
+        <v>-0.09960633073421354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01668521606031278</v>
+        <v>0.04102182781575468</v>
       </c>
       <c r="C76">
-        <v>0.1018475247924162</v>
+        <v>-0.1214575960737702</v>
       </c>
       <c r="D76">
-        <v>0.07209424756602238</v>
+        <v>0.07264059224030078</v>
       </c>
       <c r="E76">
-        <v>0.08327326458902874</v>
+        <v>0.01200840452172726</v>
       </c>
       <c r="F76">
-        <v>0.08601815124100784</v>
+        <v>-0.08818471928078223</v>
       </c>
       <c r="G76">
-        <v>0.02859853631671787</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08123755067296883</v>
+      </c>
+      <c r="H76">
+        <v>0.0224065603607973</v>
+      </c>
+      <c r="I76">
+        <v>-0.04892062856010279</v>
+      </c>
+      <c r="J76">
+        <v>0.01493025948946513</v>
+      </c>
+      <c r="K76">
+        <v>-0.02676795956261445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1172201011246399</v>
+        <v>0.0529508176554077</v>
       </c>
       <c r="C77">
-        <v>0.3677517990676736</v>
+        <v>-0.3989477632745017</v>
       </c>
       <c r="D77">
-        <v>-0.8413564318266844</v>
+        <v>-0.9001991372485767</v>
       </c>
       <c r="E77">
-        <v>0.2903189018491515</v>
+        <v>-0.02584371590562163</v>
       </c>
       <c r="F77">
-        <v>0.0553778439101013</v>
+        <v>-0.0887962151914225</v>
       </c>
       <c r="G77">
-        <v>-0.06107637922705523</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03284975314224534</v>
+      </c>
+      <c r="H77">
+        <v>-0.04302640315697195</v>
+      </c>
+      <c r="I77">
+        <v>-0.04623982977489901</v>
+      </c>
+      <c r="J77">
+        <v>-0.01375123826392951</v>
+      </c>
+      <c r="K77">
+        <v>-0.004064835456564524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.01984461401588912</v>
+        <v>0.03437110274532516</v>
       </c>
       <c r="C78">
-        <v>0.1349930898320583</v>
+        <v>-0.1145444063864384</v>
       </c>
       <c r="D78">
-        <v>0.125239853132225</v>
+        <v>0.09419115365270384</v>
       </c>
       <c r="E78">
-        <v>-0.07099384585634402</v>
+        <v>0.0399656327240431</v>
       </c>
       <c r="F78">
-        <v>0.09423415463714767</v>
+        <v>-0.003817078957021275</v>
       </c>
       <c r="G78">
-        <v>0.05387353442576241</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1208943125555203</v>
+      </c>
+      <c r="H78">
+        <v>-0.07094609398224284</v>
+      </c>
+      <c r="I78">
+        <v>0.03584653939282336</v>
+      </c>
+      <c r="J78">
+        <v>0.07476393745545608</v>
+      </c>
+      <c r="K78">
+        <v>0.4298141785107848</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02764045720311097</v>
+        <v>0.05451597238798795</v>
       </c>
       <c r="C79">
-        <v>0.1711078230228187</v>
+        <v>-0.1434805348655743</v>
       </c>
       <c r="D79">
-        <v>0.1240630910355916</v>
+        <v>0.07092151230790493</v>
       </c>
       <c r="E79">
-        <v>0.1114762661004198</v>
+        <v>0.01545623114701672</v>
       </c>
       <c r="F79">
-        <v>0.1503426477944206</v>
+        <v>-0.06863702573262753</v>
       </c>
       <c r="G79">
-        <v>0.1939848595942846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2377437491098701</v>
+      </c>
+      <c r="H79">
+        <v>0.01015324375196387</v>
+      </c>
+      <c r="I79">
+        <v>-0.02078262556647505</v>
+      </c>
+      <c r="J79">
+        <v>-0.08156341578867593</v>
+      </c>
+      <c r="K79">
+        <v>0.0461328449174242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01327337419753389</v>
+        <v>0.02021474217820643</v>
       </c>
       <c r="C80">
-        <v>0.04100246332543807</v>
+        <v>-0.04776633179119936</v>
       </c>
       <c r="D80">
-        <v>0.04816658418930654</v>
+        <v>0.03668000011549936</v>
       </c>
       <c r="E80">
-        <v>-0.01214092961600943</v>
+        <v>0.04505021316064629</v>
       </c>
       <c r="F80">
-        <v>0.03443152368205026</v>
+        <v>0.02893229076818226</v>
       </c>
       <c r="G80">
-        <v>0.006439507161632982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.06728951511454037</v>
+      </c>
+      <c r="H80">
+        <v>0.02321071956168151</v>
+      </c>
+      <c r="I80">
+        <v>0.03840917212700699</v>
+      </c>
+      <c r="J80">
+        <v>-0.03097059323079787</v>
+      </c>
+      <c r="K80">
+        <v>-0.06323840387405694</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.007610004332310255</v>
+        <v>0.01698535735948746</v>
       </c>
       <c r="C81">
-        <v>0.06840290918880858</v>
+        <v>-0.09885325720662869</v>
       </c>
       <c r="D81">
-        <v>0.07834659589094978</v>
+        <v>0.05520012848428687</v>
       </c>
       <c r="E81">
-        <v>0.09035204267450457</v>
+        <v>0.01295313350295779</v>
       </c>
       <c r="F81">
-        <v>0.09094948454690874</v>
+        <v>-0.05170142510098737</v>
       </c>
       <c r="G81">
-        <v>0.05910570069987833</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1153108716784214</v>
+      </c>
+      <c r="H81">
+        <v>-0.03597121364800385</v>
+      </c>
+      <c r="I81">
+        <v>-0.02564343842544004</v>
+      </c>
+      <c r="J81">
+        <v>-0.0557231747632653</v>
+      </c>
+      <c r="K81">
+        <v>-0.02158005585560477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.02144744136078093</v>
+        <v>0.04418195171164924</v>
       </c>
       <c r="C82">
-        <v>0.07506853384062717</v>
+        <v>-0.1006111625015025</v>
       </c>
       <c r="D82">
-        <v>0.07915231477351851</v>
+        <v>0.06666927933418239</v>
       </c>
       <c r="E82">
-        <v>0.1028585306214598</v>
+        <v>0.01820546323695196</v>
       </c>
       <c r="F82">
-        <v>0.0792228567846323</v>
+        <v>-0.07757653967305524</v>
       </c>
       <c r="G82">
-        <v>0.02100748756526648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09282428648591787</v>
+      </c>
+      <c r="H82">
+        <v>0.0002451933866392887</v>
+      </c>
+      <c r="I82">
+        <v>-0.01705106714473303</v>
+      </c>
+      <c r="J82">
+        <v>-0.009992506188659657</v>
+      </c>
+      <c r="K82">
+        <v>-0.004788936156144083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.002081024163635471</v>
+        <v>-0.001882059552907398</v>
       </c>
       <c r="C83">
-        <v>0.02838429715440986</v>
+        <v>0.02265633033773983</v>
       </c>
       <c r="D83">
-        <v>-0.1629028936401016</v>
+        <v>-0.0584106706875885</v>
       </c>
       <c r="E83">
-        <v>-0.5903853914233448</v>
+        <v>0.9549911961356684</v>
       </c>
       <c r="F83">
-        <v>0.714209580905383</v>
+        <v>0.1195292484239852</v>
       </c>
       <c r="G83">
-        <v>0.009504919471187968</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0363535588440707</v>
+      </c>
+      <c r="H83">
+        <v>0.07377208649539996</v>
+      </c>
+      <c r="I83">
+        <v>0.01759477356268797</v>
+      </c>
+      <c r="J83">
+        <v>0.07564606162273912</v>
+      </c>
+      <c r="K83">
+        <v>0.02450408736667411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.002124522953471593</v>
+        <v>-0.001057070074050657</v>
       </c>
       <c r="C84">
-        <v>0.07303965933287944</v>
+        <v>-0.04585459150798016</v>
       </c>
       <c r="D84">
-        <v>0.04436719450465196</v>
+        <v>0.06557977959357091</v>
       </c>
       <c r="E84">
-        <v>-0.06182560303682539</v>
+        <v>-0.02452313944999787</v>
       </c>
       <c r="F84">
-        <v>-0.1421911005048334</v>
+        <v>0.09215695460318926</v>
       </c>
       <c r="G84">
-        <v>0.07077730130072085</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.0466758591461451</v>
+      </c>
+      <c r="H84">
+        <v>-0.0825895741118125</v>
+      </c>
+      <c r="I84">
+        <v>-0.0795355601661297</v>
+      </c>
+      <c r="J84">
+        <v>0.1125008560500678</v>
+      </c>
+      <c r="K84">
+        <v>-0.06863413184240469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.01143521545534333</v>
+        <v>0.02788496085558428</v>
       </c>
       <c r="C85">
-        <v>0.1226648648984797</v>
+        <v>-0.1167011647584994</v>
       </c>
       <c r="D85">
-        <v>0.09616599248994986</v>
+        <v>0.07980891958376819</v>
       </c>
       <c r="E85">
-        <v>0.1167994904717428</v>
+        <v>0.01606474905592329</v>
       </c>
       <c r="F85">
-        <v>0.1406713920653324</v>
+        <v>-0.1317211588847885</v>
       </c>
       <c r="G85">
-        <v>0.1317330554184807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2168088963317603</v>
+      </c>
+      <c r="H85">
+        <v>0.05699676410271505</v>
+      </c>
+      <c r="I85">
+        <v>-0.07844708656653873</v>
+      </c>
+      <c r="J85">
+        <v>-0.08136521766192699</v>
+      </c>
+      <c r="K85">
+        <v>-0.04516902897042321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01908040173278101</v>
+        <v>0.01545553998313029</v>
       </c>
       <c r="C86">
-        <v>0.07754039447789564</v>
+        <v>-0.083695506443646</v>
       </c>
       <c r="D86">
-        <v>-0.02119853722113748</v>
+        <v>0.02965187377834738</v>
       </c>
       <c r="E86">
-        <v>-0.01590464589434711</v>
+        <v>-0.007387813502504624</v>
       </c>
       <c r="F86">
-        <v>-0.0659507377646643</v>
+        <v>0.0828790277045265</v>
       </c>
       <c r="G86">
-        <v>-0.04987285582698955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04958934095316808</v>
+      </c>
+      <c r="H86">
+        <v>-0.01445523524252157</v>
+      </c>
+      <c r="I86">
+        <v>0.1322272203806146</v>
+      </c>
+      <c r="J86">
+        <v>-0.1183632142093657</v>
+      </c>
+      <c r="K86">
+        <v>0.1721319328685492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02957133355699071</v>
+        <v>0.02481358353407061</v>
       </c>
       <c r="C87">
-        <v>0.1482022539325023</v>
+        <v>-0.1197072868218261</v>
       </c>
       <c r="D87">
-        <v>0.0382550415865026</v>
+        <v>0.0227412538720256</v>
       </c>
       <c r="E87">
-        <v>-0.09794287693806186</v>
+        <v>-0.001728186975672681</v>
       </c>
       <c r="F87">
-        <v>-0.06013448272760549</v>
+        <v>0.06444802573480661</v>
       </c>
       <c r="G87">
-        <v>0.01934444739830815</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.00118730557814763</v>
+      </c>
+      <c r="H87">
+        <v>-0.02924710625406035</v>
+      </c>
+      <c r="I87">
+        <v>-0.1171676298378953</v>
+      </c>
+      <c r="J87">
+        <v>0.05418905628848562</v>
+      </c>
+      <c r="K87">
+        <v>0.05459765153512271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.007027017307694103</v>
+        <v>0.03799256327706002</v>
       </c>
       <c r="C88">
-        <v>0.0354534533179083</v>
+        <v>-0.06312208994877605</v>
       </c>
       <c r="D88">
-        <v>0.04735633500448183</v>
+        <v>0.03997715387055083</v>
       </c>
       <c r="E88">
-        <v>0.05178906133431579</v>
+        <v>-0.009115945734282224</v>
       </c>
       <c r="F88">
-        <v>0.01877520601340252</v>
+        <v>-0.02081235171911499</v>
       </c>
       <c r="G88">
-        <v>-0.009545330551252382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02622757328952254</v>
+      </c>
+      <c r="H88">
+        <v>0.005318983444631067</v>
+      </c>
+      <c r="I88">
+        <v>-0.0111365429989625</v>
+      </c>
+      <c r="J88">
+        <v>-0.009561744094167948</v>
+      </c>
+      <c r="K88">
+        <v>-0.06725696755975934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3958399157985422</v>
+        <v>0.3911891071329929</v>
       </c>
       <c r="C89">
-        <v>-0.08581016839231934</v>
+        <v>0.1148776526548275</v>
       </c>
       <c r="D89">
-        <v>0.09125889783041642</v>
+        <v>-0.03350102407969609</v>
       </c>
       <c r="E89">
-        <v>-0.069821843187237</v>
+        <v>-0.04286226290746727</v>
       </c>
       <c r="F89">
-        <v>-0.08336438458931143</v>
+        <v>0.05760301172582463</v>
       </c>
       <c r="G89">
-        <v>0.06421444730437759</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04184243411909596</v>
+      </c>
+      <c r="H89">
+        <v>-0.02761425137713706</v>
+      </c>
+      <c r="I89">
+        <v>-0.1151216646507353</v>
+      </c>
+      <c r="J89">
+        <v>0.7256063400394808</v>
+      </c>
+      <c r="K89">
+        <v>-0.01045363437683728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3068842971204585</v>
+        <v>0.3165361544088324</v>
       </c>
       <c r="C90">
-        <v>-0.03448174380852657</v>
+        <v>0.07404255438491555</v>
       </c>
       <c r="D90">
-        <v>-0.006632315419188991</v>
+        <v>-0.02013375356166101</v>
       </c>
       <c r="E90">
-        <v>-0.074428240564548</v>
+        <v>0.006781945937590706</v>
       </c>
       <c r="F90">
-        <v>0.02801800594528764</v>
+        <v>0.03916771478280116</v>
       </c>
       <c r="G90">
-        <v>-0.02308620100669234</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009285558825713585</v>
+      </c>
+      <c r="H90">
+        <v>-0.02222617520306686</v>
+      </c>
+      <c r="I90">
+        <v>0.004667104393230958</v>
+      </c>
+      <c r="J90">
+        <v>-0.089553063711235</v>
+      </c>
+      <c r="K90">
+        <v>0.007849386063557787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02432058002593085</v>
+        <v>0.05290224659922395</v>
       </c>
       <c r="C91">
-        <v>0.07677790878294959</v>
+        <v>-0.0841883356558748</v>
       </c>
       <c r="D91">
-        <v>0.07122522647848722</v>
+        <v>0.04902795047946697</v>
       </c>
       <c r="E91">
-        <v>0.06187545858540775</v>
+        <v>0.04036805124954987</v>
       </c>
       <c r="F91">
-        <v>0.08806558295058826</v>
+        <v>-0.05678761887697083</v>
       </c>
       <c r="G91">
-        <v>0.05669991551361073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07957382496258479</v>
+      </c>
+      <c r="H91">
+        <v>0.03802130412990175</v>
+      </c>
+      <c r="I91">
+        <v>-0.007251105269689411</v>
+      </c>
+      <c r="J91">
+        <v>0.0005004527801977268</v>
+      </c>
+      <c r="K91">
+        <v>-0.05924009090745075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3818400835691772</v>
+        <v>0.3537447403014141</v>
       </c>
       <c r="C92">
-        <v>-0.08033742406099069</v>
+        <v>0.1195565490807143</v>
       </c>
       <c r="D92">
-        <v>-0.003568502276288353</v>
+        <v>-0.05255085503942275</v>
       </c>
       <c r="E92">
-        <v>0.03526554344600965</v>
+        <v>-0.04079658704136792</v>
       </c>
       <c r="F92">
-        <v>-0.1005993962684565</v>
+        <v>0.04950704724806136</v>
       </c>
       <c r="G92">
-        <v>0.03002013010056128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01772901915217003</v>
+      </c>
+      <c r="H92">
+        <v>-0.05749335196633579</v>
+      </c>
+      <c r="I92">
+        <v>0.01441007058026082</v>
+      </c>
+      <c r="J92">
+        <v>-0.1475667027227159</v>
+      </c>
+      <c r="K92">
+        <v>-0.008491093660024178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3020130209509356</v>
+        <v>0.3113824432151735</v>
       </c>
       <c r="C93">
-        <v>-0.08425400859021846</v>
+        <v>0.1125627208990686</v>
       </c>
       <c r="D93">
-        <v>0.01604132307003577</v>
+        <v>-0.007897083794382734</v>
       </c>
       <c r="E93">
-        <v>-0.05968373081140071</v>
+        <v>-0.003855475661918723</v>
       </c>
       <c r="F93">
-        <v>-0.03046689006445322</v>
+        <v>0.03571340509601298</v>
       </c>
       <c r="G93">
-        <v>0.02097554982990684</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04296865521268288</v>
+      </c>
+      <c r="H93">
+        <v>-0.02952787095506256</v>
+      </c>
+      <c r="I93">
+        <v>0.03853931160978796</v>
+      </c>
+      <c r="J93">
+        <v>-0.09809255337425803</v>
+      </c>
+      <c r="K93">
+        <v>0.01515055689803047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.0483028458003717</v>
+        <v>0.07809440760062125</v>
       </c>
       <c r="C94">
-        <v>0.1924999342504975</v>
+        <v>-0.1617761016220166</v>
       </c>
       <c r="D94">
-        <v>0.1507491400330848</v>
+        <v>0.1072053189685956</v>
       </c>
       <c r="E94">
-        <v>0.2349307693970636</v>
+        <v>0.03289856906853088</v>
       </c>
       <c r="F94">
-        <v>0.2216200914261291</v>
+        <v>-0.1550648499800559</v>
       </c>
       <c r="G94">
-        <v>0.5212509009332889</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5202743680237928</v>
+      </c>
+      <c r="H94">
+        <v>0.2381190281490906</v>
+      </c>
+      <c r="I94">
+        <v>0.06958463643201923</v>
+      </c>
+      <c r="J94">
+        <v>0.1224582380176533</v>
+      </c>
+      <c r="K94">
+        <v>-0.2604968292251404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.03025950010945325</v>
+        <v>0.03896840774218956</v>
       </c>
       <c r="C95">
-        <v>0.08888719427219959</v>
+        <v>-0.1277108405178771</v>
       </c>
       <c r="D95">
-        <v>0.04639311609463698</v>
+        <v>0.05999645301084355</v>
       </c>
       <c r="E95">
-        <v>0.03620544343237747</v>
+        <v>-0.02066274948560875</v>
       </c>
       <c r="F95">
-        <v>0.0827457823645205</v>
+        <v>-0.07693475912534335</v>
       </c>
       <c r="G95">
-        <v>-0.1102480837191767</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04477521441134822</v>
+      </c>
+      <c r="H95">
+        <v>-0.07562052520948426</v>
+      </c>
+      <c r="I95">
+        <v>-0.1048419466565242</v>
+      </c>
+      <c r="J95">
+        <v>0.1562721822915932</v>
+      </c>
+      <c r="K95">
+        <v>-0.2589250613957686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0005697925581787858</v>
+        <v>0.01356891318952112</v>
       </c>
       <c r="C97">
-        <v>0.0007574633822257583</v>
+        <v>-0.01721731533259676</v>
       </c>
       <c r="D97">
-        <v>0.001825510486510989</v>
+        <v>-0.009680051720038699</v>
       </c>
       <c r="E97">
-        <v>0.001124292096965955</v>
+        <v>-0.03144177305796811</v>
       </c>
       <c r="F97">
-        <v>-0.003634557496802091</v>
+        <v>0.007355058219913064</v>
       </c>
       <c r="G97">
-        <v>-0.002043723568245859</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02257302293668462</v>
+      </c>
+      <c r="H97">
+        <v>-0.05278979389977854</v>
+      </c>
+      <c r="I97">
+        <v>0.1302798466040529</v>
+      </c>
+      <c r="J97">
+        <v>0.05448520110956795</v>
+      </c>
+      <c r="K97">
+        <v>-0.02229032778551445</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08161188066195606</v>
+        <v>0.1308360561424338</v>
       </c>
       <c r="C98">
-        <v>0.141760219274011</v>
+        <v>-0.1607320902736108</v>
       </c>
       <c r="D98">
-        <v>0.1317977637312307</v>
+        <v>0.0951678647291563</v>
       </c>
       <c r="E98">
-        <v>0.07634126111196884</v>
+        <v>0.03359232288391953</v>
       </c>
       <c r="F98">
-        <v>0.07714415895856125</v>
+        <v>-0.2217209230918786</v>
       </c>
       <c r="G98">
-        <v>-0.2812559295750847</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3326316884644224</v>
+      </c>
+      <c r="H98">
+        <v>0.3128241897820962</v>
+      </c>
+      <c r="I98">
+        <v>0.1110839040875038</v>
+      </c>
+      <c r="J98">
+        <v>-0.08201031545824511</v>
+      </c>
+      <c r="K98">
+        <v>0.07464687813784809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01437485694911748</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.04394108911553909</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01623389427572008</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.03836888018750862</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.0619655657424196</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.06590660334107615</v>
+      </c>
+      <c r="H99">
+        <v>-0.1935703727132585</v>
+      </c>
+      <c r="I99">
+        <v>0.8863762962898938</v>
+      </c>
+      <c r="J99">
+        <v>0.1981338307947149</v>
+      </c>
+      <c r="K99">
+        <v>-0.01094767776483779</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008719265108749008</v>
+        <v>0.01483078852075278</v>
       </c>
       <c r="C101">
-        <v>0.07212687027392065</v>
+        <v>-0.0813377276185725</v>
       </c>
       <c r="D101">
-        <v>0.04469516028829132</v>
+        <v>0.05228279004814858</v>
       </c>
       <c r="E101">
-        <v>-0.03007855531168804</v>
+        <v>0.04594522958407089</v>
       </c>
       <c r="F101">
-        <v>-0.003692522709022423</v>
+        <v>0.004690901795528758</v>
       </c>
       <c r="G101">
-        <v>-0.1024668489152657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1130809092720569</v>
+      </c>
+      <c r="H101">
+        <v>-0.2875821527136027</v>
+      </c>
+      <c r="I101">
+        <v>-0.02853080921326796</v>
+      </c>
+      <c r="J101">
+        <v>-1.411062216479191e-06</v>
+      </c>
+      <c r="K101">
+        <v>-0.1830664326294281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.00710201349321706</v>
+        <v>0.002803666663500467</v>
       </c>
       <c r="C102">
-        <v>0.02357403361644207</v>
+        <v>-0.009350025885525859</v>
       </c>
       <c r="D102">
-        <v>0.004787796116770044</v>
+        <v>-0.0008426579666718151</v>
       </c>
       <c r="E102">
-        <v>0.02037836912196945</v>
+        <v>0.004178981833943721</v>
       </c>
       <c r="F102">
-        <v>0.02655666496624961</v>
+        <v>-0.007254436149405841</v>
       </c>
       <c r="G102">
-        <v>-0.009034623224057002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0006547936657399713</v>
+      </c>
+      <c r="H102">
+        <v>0.0005266814130025631</v>
+      </c>
+      <c r="I102">
+        <v>0.0007150540609437903</v>
+      </c>
+      <c r="J102">
+        <v>0.0137351814278939</v>
+      </c>
+      <c r="K102">
+        <v>0.006125099926020608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
